--- a/source/fr_dc_age_sex/xlsx/2013_dc_age_sex_e.xlsx
+++ b/source/fr_dc_age_sex/xlsx/2013_dc_age_sex_e.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27217"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/workspaces/legco-data/source/fr_dc_age_sex/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="80" windowWidth="26440" windowHeight="16120"/>
+    <workbookView xWindow="2360" yWindow="460" windowWidth="26440" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -902,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1122,6 +1130,30 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1177,41 +1209,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1502,145 +1512,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="10" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="9" max="10" width="9.796875" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" customWidth="1"/>
+    <col min="16" max="16" width="10.796875" customWidth="1"/>
+    <col min="17" max="17" width="8.796875" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="9.5" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" customWidth="1"/>
-    <col min="21" max="22" width="9.5" customWidth="1"/>
-    <col min="23" max="23" width="10.1640625" customWidth="1"/>
-    <col min="24" max="24" width="9.5" customWidth="1"/>
-    <col min="25" max="25" width="10.5" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.3984375" customWidth="1"/>
+    <col min="20" max="20" width="11.796875" customWidth="1"/>
+    <col min="21" max="22" width="9.3984375" customWidth="1"/>
+    <col min="23" max="23" width="10.19921875" customWidth="1"/>
+    <col min="24" max="24" width="9.3984375" customWidth="1"/>
+    <col min="25" max="25" width="10.3984375" customWidth="1"/>
+    <col min="26" max="26" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" customHeight="1">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
     </row>
-    <row r="2" spans="1:26" ht="31" customHeight="1">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83" t="s">
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86" t="s">
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="80" t="s">
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="89" t="s">
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="97" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="26" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
+    <row r="4" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1710,10 +1720,10 @@
       <c r="Y4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="90"/>
+      <c r="Z4" s="98"/>
     </row>
-    <row r="5" spans="1:26" ht="16" customHeight="1">
-      <c r="A5" s="91" t="s">
+    <row r="5" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="99" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1792,8 +1802,10 @@
         <v>58700</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="92"/>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="99" t="s">
+        <v>30</v>
+      </c>
       <c r="B6" s="23" t="s">
         <v>32</v>
       </c>
@@ -1870,11 +1882,11 @@
         <v>56081</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="93" t="s">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="34">
         <v>2335</v>
       </c>
@@ -1948,8 +1960,8 @@
         <v>114781</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="16" customHeight="1">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="99" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -2028,8 +2040,10 @@
         <v>124004</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1">
-      <c r="A9" s="92"/>
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="99" t="s">
+        <v>34</v>
+      </c>
       <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
@@ -2106,11 +2120,11 @@
         <v>117776</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="34">
         <v>5238</v>
       </c>
@@ -2184,8 +2198,8 @@
         <v>241780</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="16" customHeight="1">
-      <c r="A11" s="91" t="s">
+    <row r="11" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="99" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -2264,8 +2278,10 @@
         <v>111261</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1">
-      <c r="A12" s="92"/>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="99" t="s">
+        <v>36</v>
+      </c>
       <c r="B12" s="23" t="s">
         <v>32</v>
       </c>
@@ -2342,11 +2358,11 @@
         <v>108779</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1">
-      <c r="A13" s="93" t="s">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="94"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="34">
         <v>5610</v>
       </c>
@@ -2420,8 +2436,8 @@
         <v>220040</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="16" customHeight="1">
-      <c r="A14" s="91" t="s">
+    <row r="14" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="99" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2500,8 +2516,10 @@
         <v>126300</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1">
-      <c r="A15" s="92"/>
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="99" t="s">
+        <v>38</v>
+      </c>
       <c r="B15" s="23" t="s">
         <v>32</v>
       </c>
@@ -2578,11 +2596,11 @@
         <v>121329</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1">
-      <c r="A16" s="93" t="s">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="34">
         <v>6773</v>
       </c>
@@ -2656,8 +2674,8 @@
         <v>247629</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="16" customHeight="1">
-      <c r="A17" s="91" t="s">
+    <row r="17" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="99" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -2736,8 +2754,10 @@
         <v>133292</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1">
-      <c r="A18" s="92"/>
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="99" t="s">
+        <v>40</v>
+      </c>
       <c r="B18" s="23" t="s">
         <v>32</v>
       </c>
@@ -2814,11 +2834,11 @@
         <v>133129</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1">
-      <c r="A19" s="93" t="s">
+    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="34">
         <v>8435</v>
       </c>
@@ -2892,8 +2912,8 @@
         <v>266421</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="16" customHeight="1">
-      <c r="A20" s="91" t="s">
+    <row r="20" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="99" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2972,8 +2992,10 @@
         <v>132974</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" customHeight="1">
-      <c r="A21" s="92"/>
+    <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="99" t="s">
+        <v>42</v>
+      </c>
       <c r="B21" s="23" t="s">
         <v>32</v>
       </c>
@@ -3050,11 +3072,11 @@
         <v>149382</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1">
-      <c r="A22" s="93" t="s">
+    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="94"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="34">
         <v>8896</v>
       </c>
@@ -3128,8 +3150,8 @@
         <v>282356</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="16" customHeight="1">
-      <c r="A23" s="91" t="s">
+    <row r="23" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="99" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -3208,8 +3230,10 @@
         <v>168620</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1">
-      <c r="A24" s="92"/>
+    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="99" t="s">
+        <v>44</v>
+      </c>
       <c r="B24" s="23" t="s">
         <v>32</v>
       </c>
@@ -3286,11 +3310,11 @@
         <v>193104</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1">
-      <c r="A25" s="93" t="s">
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="94"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="34">
         <v>10691</v>
       </c>
@@ -3364,8 +3388,8 @@
         <v>361724</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="16" customHeight="1">
-      <c r="A26" s="91" t="s">
+    <row r="26" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="99" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -3444,8 +3468,10 @@
         <v>210341</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1">
-      <c r="A27" s="92"/>
+    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="99" t="s">
+        <v>46</v>
+      </c>
       <c r="B27" s="23" t="s">
         <v>32</v>
       </c>
@@ -3522,11 +3548,11 @@
         <v>217944</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" customHeight="1">
-      <c r="A28" s="93" t="s">
+    <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="94"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="34">
         <v>12074</v>
       </c>
@@ -3600,8 +3626,8 @@
         <v>428285</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="16" customHeight="1">
-      <c r="A29" s="91" t="s">
+    <row r="29" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="99" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -3680,8 +3706,10 @@
         <v>184058</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1">
-      <c r="A30" s="92"/>
+    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="99" t="s">
+        <v>48</v>
+      </c>
       <c r="B30" s="23" t="s">
         <v>32</v>
       </c>
@@ -3758,11 +3786,11 @@
         <v>187668</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1">
-      <c r="A31" s="93" t="s">
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="94"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="34">
         <v>11221</v>
       </c>
@@ -3836,8 +3864,8 @@
         <v>371726</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="16" customHeight="1">
-      <c r="A32" s="91" t="s">
+    <row r="32" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="99" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -3916,8 +3944,10 @@
         <v>152235</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1">
-      <c r="A33" s="92"/>
+    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="99" t="s">
+        <v>50</v>
+      </c>
       <c r="B33" s="23" t="s">
         <v>32</v>
       </c>
@@ -3994,11 +4024,11 @@
         <v>147256</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" customHeight="1">
-      <c r="A34" s="93" t="s">
+    <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="94"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="34">
         <v>9785</v>
       </c>
@@ -4072,8 +4102,8 @@
         <v>299491</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="16" customHeight="1">
-      <c r="A35" s="91" t="s">
+    <row r="35" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="99" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -4152,8 +4182,10 @@
         <v>95438</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15" customHeight="1">
-      <c r="A36" s="92"/>
+    <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="99" t="s">
+        <v>52</v>
+      </c>
       <c r="B36" s="23" t="s">
         <v>32</v>
       </c>
@@ -4230,11 +4262,11 @@
         <v>88763</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15" customHeight="1">
-      <c r="A37" s="93" t="s">
+    <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="94"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="34">
         <v>5569</v>
       </c>
@@ -4308,8 +4340,8 @@
         <v>184201</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="16" customHeight="1">
-      <c r="A38" s="95" t="s">
+    <row r="38" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="99" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -4388,8 +4420,10 @@
         <v>221892</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15" customHeight="1">
-      <c r="A39" s="96"/>
+    <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="99" t="s">
+        <v>54</v>
+      </c>
       <c r="B39" s="23" t="s">
         <v>32</v>
       </c>
@@ -4466,11 +4500,11 @@
         <v>231097</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15" customHeight="1">
-      <c r="A40" s="97" t="s">
+    <row r="40" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="98"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="34">
         <v>13660</v>
       </c>
@@ -4544,8 +4578,8 @@
         <v>452989</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="16" customHeight="1">
-      <c r="A41" s="91" t="s">
+    <row r="41" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="75" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -4624,8 +4658,8 @@
         <v>1719115</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15" customHeight="1">
-      <c r="A42" s="92"/>
+    <row r="42" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="76"/>
       <c r="B42" s="23" t="s">
         <v>58</v>
       </c>
@@ -4702,11 +4736,11 @@
         <v>1752308</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="26" customHeight="1">
-      <c r="A43" s="99" t="s">
+    <row r="43" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="100"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="58">
         <v>100287</v>
       </c>
@@ -4781,33 +4815,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:A12"/>
+  <mergeCells count="24">
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:Z2"/>
     <mergeCell ref="A3:A4"/>
@@ -4818,13 +4826,22 @@
     <mergeCell ref="O3:T3"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/source/fr_dc_age_sex/xlsx/2013_dc_age_sex_e.xlsx
+++ b/source/fr_dc_age_sex/xlsx/2013_dc_age_sex_e.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -910,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1130,86 +1130,80 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="46"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="46"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1545,112 +1539,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
     </row>
     <row r="2" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88" t="s">
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="91" t="s">
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="88" t="s">
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="97" t="s">
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1720,10 +1714,10 @@
       <c r="Y4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="98"/>
+      <c r="Z4" s="91"/>
     </row>
     <row r="5" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1803,7 +1797,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -1883,10 +1877,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="34">
         <v>2335</v>
       </c>
@@ -1961,7 +1955,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -2041,7 +2035,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -2121,10 +2115,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="34">
         <v>5238</v>
       </c>
@@ -2199,7 +2193,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="73" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -2279,7 +2273,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="73" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -2359,10 +2353,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="34">
         <v>5610</v>
       </c>
@@ -2437,7 +2431,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="73" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2517,7 +2511,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="73" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -2597,10 +2591,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="78"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="34">
         <v>6773</v>
       </c>
@@ -2675,7 +2669,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="73" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -2755,7 +2749,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="73" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -2835,10 +2829,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="78"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="34">
         <v>8435</v>
       </c>
@@ -2913,7 +2907,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="73" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2993,7 +2987,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="73" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -3073,10 +3067,10 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="78"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="34">
         <v>8896</v>
       </c>
@@ -3151,7 +3145,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="73" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -3231,7 +3225,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="73" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="23" t="s">
@@ -3311,10 +3305,10 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="78"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="34">
         <v>10691</v>
       </c>
@@ -3389,7 +3383,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="73" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -3469,7 +3463,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="73" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -3549,10 +3543,10 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="78"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="34">
         <v>12074</v>
       </c>
@@ -3627,7 +3621,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="73" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -3707,7 +3701,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="73" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="23" t="s">
@@ -3787,10 +3781,10 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="78"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="34">
         <v>11221</v>
       </c>
@@ -3865,7 +3859,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -3945,7 +3939,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -4025,10 +4019,10 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="78"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="34">
         <v>9785</v>
       </c>
@@ -4103,7 +4097,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="73" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -4183,7 +4177,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="73" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -4263,10 +4257,10 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="34">
         <v>5569</v>
       </c>
@@ -4341,7 +4335,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="73" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -4421,7 +4415,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="73" t="s">
         <v>54</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -4501,10 +4495,10 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="80"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="34">
         <v>13660</v>
       </c>
@@ -4579,7 +4573,7 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="73" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -4659,7 +4653,9 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="76"/>
+      <c r="A42" s="73" t="s">
+        <v>56</v>
+      </c>
       <c r="B42" s="23" t="s">
         <v>58</v>
       </c>
@@ -4737,10 +4733,10 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="74"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="58">
         <v>100287</v>
       </c>
@@ -4815,7 +4811,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:Z2"/>
     <mergeCell ref="A3:A4"/>
@@ -4826,20 +4835,6 @@
     <mergeCell ref="O3:T3"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
